--- a/point_df.xlsx
+++ b/point_df.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -5393,7 +5393,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -5614,7 +5614,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -5648,7 +5648,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -5682,7 +5682,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -5903,7 +5903,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -5920,7 +5920,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -6005,7 +6005,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -6362,7 +6362,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -6379,7 +6379,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -6464,7 +6464,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -6532,7 +6532,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -6600,7 +6600,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -6668,7 +6668,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -6702,7 +6702,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -6736,7 +6736,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -6753,7 +6753,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -6770,7 +6770,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -6804,7 +6804,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -6872,7 +6872,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student6</t>
         </is>
       </c>
     </row>

--- a/point_df.xlsx
+++ b/point_df.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -5393,7 +5393,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>student9</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -5614,7 +5614,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -5648,7 +5648,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -5682,7 +5682,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -5699,7 +5699,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>student15</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student9</t>
         </is>
       </c>
     </row>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student12</t>
         </is>
       </c>
     </row>
@@ -5903,7 +5903,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -5920,7 +5920,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student2</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -6005,7 +6005,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6022,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student10</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>student4</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student4</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>student18</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -6362,7 +6362,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -6379,7 +6379,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -6430,7 +6430,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -6464,7 +6464,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>student14</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>student2</t>
+          <t>student15</t>
         </is>
       </c>
     </row>
@@ -6532,7 +6532,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>student11</t>
+          <t>student13</t>
         </is>
       </c>
     </row>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student14</t>
         </is>
       </c>
     </row>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -6600,7 +6600,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student11</t>
         </is>
       </c>
     </row>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>student17</t>
+          <t>student3</t>
         </is>
       </c>
     </row>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>student19</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>student3</t>
+          <t>student7</t>
         </is>
       </c>
     </row>
@@ -6702,7 +6702,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>student16</t>
+          <t>student17</t>
         </is>
       </c>
     </row>
@@ -6736,7 +6736,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>student20</t>
+          <t>student1</t>
         </is>
       </c>
     </row>
@@ -6753,7 +6753,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>student13</t>
+          <t>student19</t>
         </is>
       </c>
     </row>
@@ -6770,7 +6770,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student5</t>
         </is>
       </c>
     </row>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>student6</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
@@ -6804,7 +6804,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>student8</t>
+          <t>student6</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>student10</t>
+          <t>student8</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>student7</t>
+          <t>student18</t>
         </is>
       </c>
     </row>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>student5</t>
+          <t>student16</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>student12</t>
+          <t>student20</t>
         </is>
       </c>
     </row>
